--- a/Code/Results/Cases/Case_4_110/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_110/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>32.30148269228319</v>
+        <v>28.01347424679749</v>
       </c>
       <c r="C2">
-        <v>32.71833258339107</v>
+        <v>27.21930555597951</v>
       </c>
       <c r="D2">
-        <v>12.21595124159467</v>
+        <v>15.37063265131838</v>
       </c>
       <c r="E2">
-        <v>13.21317417412658</v>
+        <v>16.82971055238288</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.071695893081589</v>
+        <v>3.779004842666364</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>32.28149453338018</v>
+        <v>37.23724022780687</v>
       </c>
       <c r="J2">
-        <v>5.855785841817099</v>
+        <v>9.646773456234229</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.90868645294407</v>
+        <v>21.50631683333983</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>30.04238218190565</v>
+        <v>27.5584124960966</v>
       </c>
       <c r="C3">
-        <v>30.47029388119616</v>
+        <v>26.71750360611718</v>
       </c>
       <c r="D3">
-        <v>11.66976287537397</v>
+        <v>15.33445668237109</v>
       </c>
       <c r="E3">
-        <v>12.63398961148943</v>
+        <v>16.79589350237164</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.092138034752395</v>
+        <v>3.785325032427704</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>31.03333891947849</v>
+        <v>37.09264833351401</v>
       </c>
       <c r="J3">
-        <v>5.779470229508475</v>
+        <v>9.66683883639344</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.03742894701248</v>
+        <v>21.54308640729557</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>28.66907337584508</v>
+        <v>27.28551717651133</v>
       </c>
       <c r="C4">
-        <v>29.06547743773433</v>
+        <v>26.41488329764672</v>
       </c>
       <c r="D4">
-        <v>11.34085014621124</v>
+        <v>15.31630997733369</v>
       </c>
       <c r="E4">
-        <v>12.28615622354155</v>
+        <v>16.77959089353637</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.104739630244135</v>
+        <v>3.789394139793544</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>30.29362880336285</v>
+        <v>37.01291208349151</v>
       </c>
       <c r="J4">
-        <v>5.738244119872799</v>
+        <v>9.680900404898306</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.12387205108909</v>
+        <v>21.56764001558074</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>28.10213060242012</v>
+        <v>27.17609143358405</v>
       </c>
       <c r="C5">
-        <v>28.48649055055042</v>
+        <v>26.29310867897208</v>
       </c>
       <c r="D5">
-        <v>11.20836035636739</v>
+        <v>15.30993730720798</v>
       </c>
       <c r="E5">
-        <v>12.14627423696902</v>
+        <v>16.77406824498082</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.109900479365378</v>
+        <v>3.791099985843601</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>29.99848364726174</v>
+        <v>36.98269717352343</v>
       </c>
       <c r="J5">
-        <v>5.722762134771423</v>
+        <v>9.687067311503892</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.16080822020606</v>
+        <v>21.57814079653971</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>28.00754533086997</v>
+        <v>27.15803307031556</v>
       </c>
       <c r="C6">
-        <v>28.38995112608124</v>
+        <v>26.27298623819205</v>
       </c>
       <c r="D6">
-        <v>11.1864525236395</v>
+        <v>15.3089408512996</v>
       </c>
       <c r="E6">
-        <v>12.12315765989774</v>
+        <v>16.77321885722769</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.110759325687957</v>
+        <v>3.791386125801705</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>29.94984497960249</v>
+        <v>36.97781767637728</v>
       </c>
       <c r="J6">
-        <v>5.720268300185646</v>
+        <v>9.688117662709157</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.16704080324668</v>
+        <v>21.57991427755861</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>28.66145716461789</v>
+        <v>27.28403402367448</v>
       </c>
       <c r="C7">
-        <v>29.05769567986</v>
+        <v>26.41323452735183</v>
       </c>
       <c r="D7">
-        <v>11.33905715290418</v>
+        <v>15.31621989495512</v>
       </c>
       <c r="E7">
-        <v>12.28426227084802</v>
+        <v>16.77951187716336</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.10480911177905</v>
+        <v>3.789416952149768</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>30.28962336241877</v>
+        <v>37.01249536667687</v>
       </c>
       <c r="J7">
-        <v>5.738030109720524</v>
+        <v>9.680981807315291</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.12436344173703</v>
+        <v>21.56777963137771</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31.48904984297656</v>
+        <v>27.85530382744012</v>
       </c>
       <c r="C8">
-        <v>31.94801073489187</v>
+        <v>27.04524511264587</v>
       </c>
       <c r="D8">
-        <v>12.02622350454034</v>
+        <v>15.35731565305547</v>
       </c>
       <c r="E8">
-        <v>13.01177911038944</v>
+        <v>16.81712420451592</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.0787424277171</v>
+        <v>3.781145078548259</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>31.84531233948675</v>
+        <v>37.18551122677197</v>
       </c>
       <c r="J8">
-        <v>5.828240387412305</v>
+        <v>9.653329884615326</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.95144388845372</v>
+        <v>21.51858337615542</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>37.22256628961365</v>
+        <v>29.02082482279943</v>
       </c>
       <c r="C9">
-        <v>37.47313435234963</v>
+        <v>28.32083038802714</v>
       </c>
       <c r="D9">
-        <v>13.43191257066556</v>
+        <v>15.47012257289813</v>
       </c>
       <c r="E9">
-        <v>14.50830825550411</v>
+        <v>16.92628216577521</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.027308587006482</v>
+        <v>3.76640780166941</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>35.13385629480234</v>
+        <v>37.59625148730019</v>
       </c>
       <c r="J9">
-        <v>6.055039938587148</v>
+        <v>9.612973747395348</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.67938382922139</v>
+        <v>21.43789304218822</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>41.31293767075379</v>
+        <v>29.89605828100476</v>
       </c>
       <c r="C10">
-        <v>41.59669227908322</v>
+        <v>29.27033252927406</v>
       </c>
       <c r="D10">
-        <v>14.51714037953355</v>
+        <v>15.57253106775739</v>
       </c>
       <c r="E10">
-        <v>15.66954891363386</v>
+        <v>17.02800559133801</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.988056536317644</v>
+        <v>3.756468457761238</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>37.74877602954403</v>
+        <v>37.9410130148321</v>
       </c>
       <c r="J10">
-        <v>6.261135175255443</v>
+        <v>9.591850956959444</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.5354441115466</v>
+        <v>21.38836813052048</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>43.17056422674419</v>
+        <v>30.296516662271</v>
       </c>
       <c r="C11">
-        <v>43.48381600224463</v>
+        <v>29.70295957121034</v>
       </c>
       <c r="D11">
-        <v>15.02891545080704</v>
+        <v>15.62331572260976</v>
       </c>
       <c r="E11">
-        <v>16.21866637669804</v>
+        <v>17.07892316928681</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.969483320114652</v>
+        <v>3.75213607713767</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>39.00072212186582</v>
+        <v>38.10701168631855</v>
       </c>
       <c r="J11">
-        <v>6.366258147902309</v>
+        <v>9.584108156004737</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.48688317156012</v>
+        <v>21.36798724124925</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>43.87634212565623</v>
+        <v>30.44834450832702</v>
       </c>
       <c r="C12">
-        <v>44.20314124037807</v>
+        <v>29.86672395689087</v>
       </c>
       <c r="D12">
-        <v>15.22617968318837</v>
+        <v>15.64314488122653</v>
       </c>
       <c r="E12">
-        <v>16.43056284226444</v>
+        <v>17.09886743345237</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.962300414164781</v>
+        <v>3.750522424562452</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>39.48617469135755</v>
+        <v>38.17116959750845</v>
       </c>
       <c r="J12">
-        <v>6.408026217710439</v>
+        <v>9.581445660337874</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>14.47148441206468</v>
+        <v>21.36058105110234</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>43.72418189085919</v>
+        <v>30.41563985386317</v>
       </c>
       <c r="C13">
-        <v>44.04795123399644</v>
+        <v>29.83145963006077</v>
       </c>
       <c r="D13">
-        <v>15.18352371210533</v>
+        <v>15.63884781541271</v>
       </c>
       <c r="E13">
-        <v>16.3847318092538</v>
+        <v>17.09454268406396</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.963854940464236</v>
+        <v>3.75086876018438</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>39.38107037834187</v>
+        <v>38.1572946675168</v>
       </c>
       <c r="J13">
-        <v>6.398937193059252</v>
+        <v>9.58200707002157</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14.47465704441065</v>
+        <v>21.36216220405525</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>43.22856292672359</v>
+        <v>30.30900480199546</v>
       </c>
       <c r="C14">
-        <v>43.54287935745629</v>
+        <v>29.71643471225646</v>
       </c>
       <c r="D14">
-        <v>15.04506887767373</v>
+        <v>15.62493512789285</v>
       </c>
       <c r="E14">
-        <v>16.23601308891606</v>
+        <v>17.08055074163551</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.968895696938073</v>
+        <v>3.75200278284751</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>39.04041587316607</v>
+        <v>38.11226410964496</v>
       </c>
       <c r="J14">
-        <v>6.369652901981818</v>
+        <v>9.583883702248773</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.48555256188826</v>
+        <v>21.36737166875711</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>42.92538438733983</v>
+        <v>30.24370722973332</v>
       </c>
       <c r="C15">
-        <v>43.2342316521733</v>
+        <v>29.64596585862256</v>
       </c>
       <c r="D15">
-        <v>14.96074400417977</v>
+        <v>15.6164909140309</v>
       </c>
       <c r="E15">
-        <v>16.145468690553</v>
+        <v>17.07206644099681</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.971962186852446</v>
+        <v>3.752700903183608</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>38.83332161789589</v>
+        <v>38.08484996983663</v>
       </c>
       <c r="J15">
-        <v>6.3519821568983</v>
+        <v>9.585068330117515</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.49263527603411</v>
+        <v>21.37060327815421</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>41.19169277987432</v>
+        <v>29.8699210080192</v>
       </c>
       <c r="C16">
-        <v>41.47383273702</v>
+        <v>29.24205930421117</v>
       </c>
       <c r="D16">
-        <v>14.484125480544</v>
+        <v>15.56929619608566</v>
       </c>
       <c r="E16">
-        <v>15.63415649195318</v>
+        <v>17.02477105181415</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.989252251549766</v>
+        <v>3.756755371285729</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>37.66839983494724</v>
+        <v>37.93034737070266</v>
       </c>
       <c r="J16">
-        <v>6.254519485094344</v>
+        <v>9.592394620204262</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.53900204481122</v>
+        <v>21.38974352673064</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>40.12904852539837</v>
+        <v>29.64109936243022</v>
       </c>
       <c r="C17">
-        <v>40.3986719132534</v>
+        <v>28.9943361251765</v>
       </c>
       <c r="D17">
-        <v>14.19688968799329</v>
+        <v>15.5414153983546</v>
       </c>
       <c r="E17">
-        <v>15.32640192614098</v>
+        <v>16.99694297494131</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.999646590667395</v>
+        <v>3.759290896630566</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>36.9711931666091</v>
+        <v>37.83789886454632</v>
       </c>
       <c r="J17">
-        <v>6.197842956217162</v>
+        <v>9.597367866675814</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.57212679950658</v>
+        <v>21.40203756436816</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>39.51734245781284</v>
+        <v>29.50971333638248</v>
       </c>
       <c r="C18">
-        <v>39.78109736265027</v>
+        <v>28.85192689148415</v>
       </c>
       <c r="D18">
-        <v>14.03331570704128</v>
+        <v>15.52577468300193</v>
       </c>
       <c r="E18">
-        <v>15.1512789926832</v>
+        <v>16.98137438047241</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.005561084555009</v>
+        <v>3.76076707639284</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>36.57586861087521</v>
+        <v>37.78558893642454</v>
       </c>
       <c r="J18">
-        <v>6.166290052613721</v>
+        <v>9.600403919467514</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.5927303238347</v>
+        <v>21.40931080756394</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>39.31007226462098</v>
+        <v>29.46527174630918</v>
       </c>
       <c r="C19">
-        <v>39.57206144105352</v>
+        <v>28.8037274243629</v>
       </c>
       <c r="D19">
-        <v>13.97819211832937</v>
+        <v>15.52054710333176</v>
       </c>
       <c r="E19">
-        <v>15.09228622558478</v>
+        <v>16.97617837189699</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.007553824823145</v>
+        <v>3.761269952814327</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>36.44293601784035</v>
+        <v>37.76802665982615</v>
       </c>
       <c r="J19">
-        <v>6.155778062503112</v>
+        <v>9.601461992601191</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.59995831179147</v>
+        <v>21.41180802165111</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>40.24220333004757</v>
+        <v>29.66543550945916</v>
       </c>
       <c r="C20">
-        <v>40.51301959163377</v>
+        <v>29.02070015520442</v>
       </c>
       <c r="D20">
-        <v>14.22729181569788</v>
+        <v>15.54434245345462</v>
       </c>
       <c r="E20">
-        <v>15.35896156325252</v>
+        <v>16.99986008569268</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.998547017119095</v>
+        <v>3.75901914398862</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>37.04480839713732</v>
+        <v>37.84765088228691</v>
       </c>
       <c r="J20">
-        <v>6.203765976612227</v>
+        <v>9.596820276200738</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.56843656853687</v>
+        <v>21.40070791359734</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>43.37404802987013</v>
+        <v>30.34032230230493</v>
       </c>
       <c r="C21">
-        <v>43.69107336187392</v>
+        <v>29.75022325908003</v>
       </c>
       <c r="D21">
-        <v>15.08563378313057</v>
+        <v>15.62900543833027</v>
       </c>
       <c r="E21">
-        <v>16.27957847901769</v>
+        <v>17.08464256685473</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.967419610895976</v>
+        <v>3.751668964244501</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>39.14014232201122</v>
+        <v>38.12545562549958</v>
       </c>
       <c r="J21">
-        <v>6.378198084437347</v>
+        <v>9.58332516537415</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14.48226581930581</v>
+        <v>21.36583304387909</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>45.43654977817889</v>
+        <v>30.78240053846856</v>
       </c>
       <c r="C22">
-        <v>45.79788558445959</v>
+        <v>30.22657694633302</v>
       </c>
       <c r="D22">
-        <v>15.66748750395625</v>
+        <v>15.68782059392513</v>
       </c>
       <c r="E22">
-        <v>16.90507019304338</v>
+        <v>17.14391370489586</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.946170077127576</v>
+        <v>3.747022018410442</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>40.57765860886909</v>
+        <v>38.31457079700419</v>
       </c>
       <c r="J22">
-        <v>6.503863304972157</v>
+        <v>9.57607692111581</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>14.44377709827211</v>
+        <v>21.34485789771589</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>44.33313626473945</v>
+        <v>30.54641153192805</v>
       </c>
       <c r="C23">
-        <v>44.66939157998281</v>
+        <v>29.97242915294142</v>
       </c>
       <c r="D23">
-        <v>15.35464978341965</v>
+        <v>15.65611324003322</v>
       </c>
       <c r="E23">
-        <v>16.5686319266954</v>
+        <v>17.11192814350325</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.9576138850241</v>
+        <v>3.749487919087842</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>39.80315440661224</v>
+        <v>38.212952547024</v>
       </c>
       <c r="J23">
-        <v>6.435588385362773</v>
+        <v>9.579801256879557</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>14.46245437592863</v>
+        <v>21.35588551110344</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>40.19104866177598</v>
+        <v>29.65443260713159</v>
       </c>
       <c r="C24">
-        <v>40.4613215115764</v>
+        <v>29.00878093334438</v>
       </c>
       <c r="D24">
-        <v>14.21354220968014</v>
+        <v>15.54301792187696</v>
       </c>
       <c r="E24">
-        <v>15.34423578269874</v>
+        <v>16.99853991978769</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.99904432212076</v>
+        <v>3.759141945800381</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>37.01150996032446</v>
+        <v>37.84323937731612</v>
       </c>
       <c r="J24">
-        <v>6.2010849901864</v>
+        <v>9.597067291043942</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.57010010353851</v>
+        <v>21.40130840964655</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>35.69917690038189</v>
+        <v>28.70157155150709</v>
       </c>
       <c r="C25">
-        <v>35.97465849156449</v>
+        <v>27.97288974737551</v>
       </c>
       <c r="D25">
-        <v>13.04408763484137</v>
+        <v>15.43616368494498</v>
       </c>
       <c r="E25">
-        <v>14.09447412417988</v>
+        <v>16.89296384101501</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.041370281755406</v>
+        <v>3.770237465884758</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>34.21426258973958</v>
+        <v>37.47753344751157</v>
       </c>
       <c r="J25">
-        <v>5.987525558530262</v>
+        <v>9.622398831786047</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.74446911731501</v>
+        <v>21.45801831046072</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_110/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_110/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.01347424679749</v>
+        <v>32.30148269228306</v>
       </c>
       <c r="C2">
-        <v>27.21930555597951</v>
+        <v>32.71833258339098</v>
       </c>
       <c r="D2">
-        <v>15.37063265131838</v>
+        <v>12.21595124159461</v>
       </c>
       <c r="E2">
-        <v>16.82971055238288</v>
+        <v>13.21317417412658</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.779004842666364</v>
+        <v>2.07169589308173</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>37.23724022780687</v>
+        <v>32.28149453338015</v>
       </c>
       <c r="J2">
-        <v>9.646773456234229</v>
+        <v>5.855785841817113</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>21.50631683333983</v>
+        <v>14.90868645294414</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27.5584124960966</v>
+        <v>30.04238218190564</v>
       </c>
       <c r="C3">
-        <v>26.71750360611718</v>
+        <v>30.47029388119615</v>
       </c>
       <c r="D3">
-        <v>15.33445668237109</v>
+        <v>11.66976287537397</v>
       </c>
       <c r="E3">
-        <v>16.79589350237164</v>
+        <v>12.63398961148945</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.785325032427704</v>
+        <v>2.092138034752657</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>37.09264833351401</v>
+        <v>31.03333891947846</v>
       </c>
       <c r="J3">
-        <v>9.66683883639344</v>
+        <v>5.779470229508552</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21.54308640729557</v>
+        <v>15.03742894701248</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>27.28551717651133</v>
+        <v>28.66907337584508</v>
       </c>
       <c r="C4">
-        <v>26.41488329764672</v>
+        <v>29.06547743773432</v>
       </c>
       <c r="D4">
-        <v>15.31630997733369</v>
+        <v>11.34085014621117</v>
       </c>
       <c r="E4">
-        <v>16.77959089353637</v>
+        <v>12.28615622354152</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.789394139793544</v>
+        <v>2.104739630244529</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>37.01291208349151</v>
+        <v>30.29362880336287</v>
       </c>
       <c r="J4">
-        <v>9.680900404898306</v>
+        <v>5.738244119872799</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>21.56764001558074</v>
+        <v>15.1238720510891</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>27.17609143358405</v>
+        <v>28.1021306024202</v>
       </c>
       <c r="C5">
-        <v>26.29310867897208</v>
+        <v>28.48649055055048</v>
       </c>
       <c r="D5">
-        <v>15.30993730720798</v>
+        <v>11.20836035636738</v>
       </c>
       <c r="E5">
-        <v>16.77406824498082</v>
+        <v>12.14627423696904</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.791099985843601</v>
+        <v>2.109900479365513</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>36.98269717352343</v>
+        <v>29.99848364726175</v>
       </c>
       <c r="J5">
-        <v>9.687067311503892</v>
+        <v>5.722762134771442</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>21.57814079653971</v>
+        <v>15.16080822020605</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>27.15803307031556</v>
+        <v>28.00754533086993</v>
       </c>
       <c r="C6">
-        <v>26.27298623819205</v>
+        <v>28.38995112608113</v>
       </c>
       <c r="D6">
-        <v>15.3089408512996</v>
+        <v>11.18645252363953</v>
       </c>
       <c r="E6">
-        <v>16.77321885722769</v>
+        <v>12.12315765989777</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.791386125801705</v>
+        <v>2.110759325688091</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>36.97781767637728</v>
+        <v>29.94984497960257</v>
       </c>
       <c r="J6">
-        <v>9.688117662709157</v>
+        <v>5.720268300185628</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>21.57991427755861</v>
+        <v>15.16704080324675</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>27.28403402367448</v>
+        <v>28.66145716461791</v>
       </c>
       <c r="C7">
-        <v>26.41323452735183</v>
+        <v>29.05769567986004</v>
       </c>
       <c r="D7">
-        <v>15.31621989495512</v>
+        <v>11.33905715290419</v>
       </c>
       <c r="E7">
-        <v>16.77951187716336</v>
+        <v>12.28426227084803</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.789416952149768</v>
+        <v>2.10480911177892</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>37.01249536667687</v>
+        <v>30.28962336241873</v>
       </c>
       <c r="J7">
-        <v>9.680981807315291</v>
+        <v>5.738030109720567</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>21.56777963137771</v>
+        <v>15.12436344173696</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27.85530382744012</v>
+        <v>31.48904984297662</v>
       </c>
       <c r="C8">
-        <v>27.04524511264587</v>
+        <v>31.94801073489199</v>
       </c>
       <c r="D8">
-        <v>15.35731565305547</v>
+        <v>12.02622350454033</v>
       </c>
       <c r="E8">
-        <v>16.81712420451592</v>
+        <v>13.0117791103894</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.781145078548259</v>
+        <v>2.078742427717493</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>37.18551122677197</v>
+        <v>31.84531233948674</v>
       </c>
       <c r="J8">
-        <v>9.653329884615326</v>
+        <v>5.828240387412265</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>21.51858337615542</v>
+        <v>14.95144388845369</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.02082482279943</v>
+        <v>37.22256628961364</v>
       </c>
       <c r="C9">
-        <v>28.32083038802714</v>
+        <v>37.4731343523495</v>
       </c>
       <c r="D9">
-        <v>15.47012257289813</v>
+        <v>13.43191257066556</v>
       </c>
       <c r="E9">
-        <v>16.92628216577521</v>
+        <v>14.50830825550413</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.76640780166941</v>
+        <v>2.027308587006354</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>37.59625148730019</v>
+        <v>35.13385629480225</v>
       </c>
       <c r="J9">
-        <v>9.612973747395348</v>
+        <v>6.05503993858717</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.43789304218822</v>
+        <v>14.67938382922138</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.89605828100476</v>
+        <v>41.31293767075366</v>
       </c>
       <c r="C10">
-        <v>29.27033252927406</v>
+        <v>41.59669227908301</v>
       </c>
       <c r="D10">
-        <v>15.57253106775739</v>
+        <v>14.51714037953351</v>
       </c>
       <c r="E10">
-        <v>17.02800559133801</v>
+        <v>15.66954891363382</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.756468457761238</v>
+        <v>1.988056536317633</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>37.9410130148321</v>
+        <v>37.74877602954388</v>
       </c>
       <c r="J10">
-        <v>9.591850956959444</v>
+        <v>6.261135175255432</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.38836813052048</v>
+        <v>14.53544411154658</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.296516662271</v>
+        <v>43.17056422674415</v>
       </c>
       <c r="C11">
-        <v>29.70295957121034</v>
+        <v>43.48381600224451</v>
       </c>
       <c r="D11">
-        <v>15.62331572260976</v>
+        <v>15.02891545080709</v>
       </c>
       <c r="E11">
-        <v>17.07892316928681</v>
+        <v>16.21866637669804</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.75213607713767</v>
+        <v>1.969483320114664</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>38.10701168631855</v>
+        <v>39.0007221218659</v>
       </c>
       <c r="J11">
-        <v>9.584108156004737</v>
+        <v>6.366258147902297</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.36798724124925</v>
+        <v>14.48688317156017</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.44834450832702</v>
+        <v>43.87634212565609</v>
       </c>
       <c r="C12">
-        <v>29.86672395689087</v>
+        <v>44.20314124037778</v>
       </c>
       <c r="D12">
-        <v>15.64314488122653</v>
+        <v>15.22617968318837</v>
       </c>
       <c r="E12">
-        <v>17.09886743345237</v>
+        <v>16.4305628422644</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.750522424562452</v>
+        <v>1.962300414164271</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>38.17116959750845</v>
+        <v>39.4861746913575</v>
       </c>
       <c r="J12">
-        <v>9.581445660337874</v>
+        <v>6.408026217710416</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.36058105110234</v>
+        <v>14.47148441206476</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.41563985386317</v>
+        <v>43.72418189085892</v>
       </c>
       <c r="C13">
-        <v>29.83145963006077</v>
+        <v>44.04795123399627</v>
       </c>
       <c r="D13">
-        <v>15.63884781541271</v>
+        <v>15.18352371210523</v>
       </c>
       <c r="E13">
-        <v>17.09454268406396</v>
+        <v>16.38473180925376</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.75086876018438</v>
+        <v>1.963854940464105</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>38.1572946675168</v>
+        <v>39.38107037834175</v>
       </c>
       <c r="J13">
-        <v>9.58200707002157</v>
+        <v>6.398937193059267</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.36216220405525</v>
+        <v>14.47465704441071</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.30900480199546</v>
+        <v>43.22856292672393</v>
       </c>
       <c r="C14">
-        <v>29.71643471225646</v>
+        <v>43.54287935745655</v>
       </c>
       <c r="D14">
-        <v>15.62493512789285</v>
+        <v>15.04506887767381</v>
       </c>
       <c r="E14">
-        <v>17.08055074163551</v>
+        <v>16.23601308891612</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.75200278284751</v>
+        <v>1.96889569693833</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>38.11226410964496</v>
+        <v>39.04041587316635</v>
       </c>
       <c r="J14">
-        <v>9.583883702248773</v>
+        <v>6.369652901981823</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.36737166875711</v>
+        <v>14.48555256188822</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.24370722973332</v>
+        <v>42.92538438733962</v>
       </c>
       <c r="C15">
-        <v>29.64596585862256</v>
+        <v>43.23423165217321</v>
       </c>
       <c r="D15">
-        <v>15.6164909140309</v>
+        <v>14.96074400417972</v>
       </c>
       <c r="E15">
-        <v>17.07206644099681</v>
+        <v>16.14546869055297</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.752700903183608</v>
+        <v>1.971962186852692</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>38.08484996983663</v>
+        <v>38.83332161789584</v>
       </c>
       <c r="J15">
-        <v>9.585068330117515</v>
+        <v>6.351982156898299</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.37060327815421</v>
+        <v>14.49263527603423</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.8699210080192</v>
+        <v>41.19169277987454</v>
       </c>
       <c r="C16">
-        <v>29.24205930421117</v>
+        <v>41.47383273702024</v>
       </c>
       <c r="D16">
-        <v>15.56929619608566</v>
+        <v>14.48412548054402</v>
       </c>
       <c r="E16">
-        <v>17.02477105181415</v>
+        <v>15.63415649195325</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.756755371285729</v>
+        <v>1.989252251549774</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>37.93034737070266</v>
+        <v>37.66839983494748</v>
       </c>
       <c r="J16">
-        <v>9.592394620204262</v>
+        <v>6.254519485094384</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.38974352673064</v>
+        <v>14.53900204481119</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.64109936243022</v>
+        <v>40.12904852539839</v>
       </c>
       <c r="C17">
-        <v>28.9943361251765</v>
+        <v>40.39867191325328</v>
       </c>
       <c r="D17">
-        <v>15.5414153983546</v>
+        <v>14.19688968799328</v>
       </c>
       <c r="E17">
-        <v>16.99694297494131</v>
+        <v>15.32640192614101</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.759290896630566</v>
+        <v>1.999646590667398</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>37.83789886454632</v>
+        <v>36.97119316660906</v>
       </c>
       <c r="J17">
-        <v>9.597367866675814</v>
+        <v>6.197842956217189</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>21.40203756436816</v>
+        <v>14.57212679950656</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.50971333638248</v>
+        <v>39.51734245781259</v>
       </c>
       <c r="C18">
-        <v>28.85192689148415</v>
+        <v>39.78109736264992</v>
       </c>
       <c r="D18">
-        <v>15.52577468300193</v>
+        <v>14.03331570704129</v>
       </c>
       <c r="E18">
-        <v>16.98137438047241</v>
+        <v>15.15127899268315</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.76076707639284</v>
+        <v>2.005561084554746</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>37.78558893642454</v>
+        <v>36.57586861087521</v>
       </c>
       <c r="J18">
-        <v>9.600403919467514</v>
+        <v>6.166290052613696</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>21.40931080756394</v>
+        <v>14.59273032383476</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.46527174630918</v>
+        <v>39.31007226462098</v>
       </c>
       <c r="C19">
-        <v>28.8037274243629</v>
+        <v>39.57206144105346</v>
       </c>
       <c r="D19">
-        <v>15.52054710333176</v>
+        <v>13.97819211832935</v>
       </c>
       <c r="E19">
-        <v>16.97617837189699</v>
+        <v>15.09228622558476</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.761269952814327</v>
+        <v>2.007553824823006</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>37.76802665982615</v>
+        <v>36.44293601784029</v>
       </c>
       <c r="J19">
-        <v>9.601461992601191</v>
+        <v>6.155778062503094</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>21.41180802165111</v>
+        <v>14.5999583117914</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.66543550945916</v>
+        <v>40.24220333004756</v>
       </c>
       <c r="C20">
-        <v>29.02070015520442</v>
+        <v>40.51301959163371</v>
       </c>
       <c r="D20">
-        <v>15.54434245345462</v>
+        <v>14.22729181569789</v>
       </c>
       <c r="E20">
-        <v>16.99986008569268</v>
+        <v>15.35896156325253</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.75901914398862</v>
+        <v>1.998547017118961</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>37.84765088228691</v>
+        <v>37.04480839713742</v>
       </c>
       <c r="J20">
-        <v>9.596820276200738</v>
+        <v>6.203765976612201</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>21.40070791359734</v>
+        <v>14.56843656853692</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.34032230230493</v>
+        <v>43.37404802987042</v>
       </c>
       <c r="C21">
-        <v>29.75022325908003</v>
+        <v>43.69107336187424</v>
       </c>
       <c r="D21">
-        <v>15.62900543833027</v>
+        <v>15.0856337831306</v>
       </c>
       <c r="E21">
-        <v>17.08464256685473</v>
+        <v>16.27957847901772</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.751668964244501</v>
+        <v>1.967419610895869</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>38.12545562549958</v>
+        <v>39.14014232201143</v>
       </c>
       <c r="J21">
-        <v>9.58332516537415</v>
+        <v>6.378198084437378</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.36583304387909</v>
+        <v>14.48226581930576</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.78240053846856</v>
+        <v>45.43654977817864</v>
       </c>
       <c r="C22">
-        <v>30.22657694633302</v>
+        <v>45.79788558445923</v>
       </c>
       <c r="D22">
-        <v>15.68782059392513</v>
+        <v>15.66748750395625</v>
       </c>
       <c r="E22">
-        <v>17.14391370489586</v>
+        <v>16.90507019304333</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.747022018410442</v>
+        <v>1.946170077127442</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>38.31457079700419</v>
+        <v>40.57765860886894</v>
       </c>
       <c r="J22">
-        <v>9.57607692111581</v>
+        <v>6.503863304972139</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>21.34485789771589</v>
+        <v>14.44377709827221</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.54641153192805</v>
+        <v>44.33313626473908</v>
       </c>
       <c r="C23">
-        <v>29.97242915294142</v>
+        <v>44.66939157998237</v>
       </c>
       <c r="D23">
-        <v>15.65611324003322</v>
+        <v>15.35464978341964</v>
       </c>
       <c r="E23">
-        <v>17.11192814350325</v>
+        <v>16.56863192669539</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.749487919087842</v>
+        <v>1.95761388502412</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>38.212952547024</v>
+        <v>39.80315440661209</v>
       </c>
       <c r="J23">
-        <v>9.579801256879557</v>
+        <v>6.435588385362785</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.35588551110344</v>
+        <v>14.46245437592875</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.65443260713159</v>
+        <v>40.19104866177597</v>
       </c>
       <c r="C24">
-        <v>29.00878093334438</v>
+        <v>40.46132151157634</v>
       </c>
       <c r="D24">
-        <v>15.54301792187696</v>
+        <v>14.21354220968012</v>
       </c>
       <c r="E24">
-        <v>16.99853991978769</v>
+        <v>15.34423578269873</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.759141945800381</v>
+        <v>1.99904432212076</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>37.84323937731612</v>
+        <v>37.01150996032444</v>
       </c>
       <c r="J24">
-        <v>9.597067291043942</v>
+        <v>6.201084990186387</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>21.40130840964655</v>
+        <v>14.57010010353855</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.70157155150709</v>
+        <v>35.69917690038184</v>
       </c>
       <c r="C25">
-        <v>27.97288974737551</v>
+        <v>35.97465849156443</v>
       </c>
       <c r="D25">
-        <v>15.43616368494498</v>
+        <v>13.04408763484133</v>
       </c>
       <c r="E25">
-        <v>16.89296384101501</v>
+        <v>14.09447412417983</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.770237465884758</v>
+        <v>2.041370281755793</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>37.47753344751157</v>
+        <v>34.21426258973955</v>
       </c>
       <c r="J25">
-        <v>9.622398831786047</v>
+        <v>5.987525558530225</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.45801831046072</v>
+        <v>14.74446911731499</v>
       </c>
       <c r="O25">
         <v>0</v>
